--- a/main/Scrapify.xlsx
+++ b/main/Scrapify.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -721,22 +721,260 @@
       </c>
     </row>
     <row r="6" ht="409.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gravis Robotics</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Standortleiter und Autonomie-Tester / Site Manager and Autonomy Tester</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6">
+        <f>======== English Version Below =========
+Gravis Robotics ist ein Startup, das Baumaschinen in intelligente und autonome Roboter verwandelt. Unsere einzigartige Kombination aus maschinell gelernter Automatisierung und erweiterten Fernsteuerungssystemen ermöglicht es einer Bedienperson, gleichzeitig eine Flotte von Erdbewegungsmaschinen in einer spielerisch gestalteten Bedienumgebung sicher zu steuern. Unser Team verfügt über mehr als ein Jahrzehnt akademischer Erfahrung an der Spitze der großskaligen Robotik und wächst schnell, um dieses Know-how in eine Billionen-Dollar-Industrie zu bringen – durch aktive Einsätze mit Marktführern.
+Über die Stelle
+Bei Gravis entwickeln wir täglich Lösungen an der Schnittstelle von Hardware und Software: Wir bringen neue Wahrnehmungs- und Steuerungstechnologien auf leistungsstarke, autonome Maschinen. Unser Rooftop Autonomous Control Kit (Rack) kombiniert Sensorik, Recheneinheiten, Kommunikation und Netzwerkmodule und ermöglicht damit eine herstellerunabhängige Lösung, die auf unterschiedlichste Baumaschinen verschiedener Typen und Baujahre anwendbar ist.
+Als Site Manager &amp; Autonomy Tester unterstützen Sie den Aufbau und die Instandhaltung unserer realen Testumgebung für autonome Baumaschinen und wirken direkt bei Feldtests mit robotischen Baggern mit. Sie arbeiten täglich auf unserem Testgelände, spielen eine Schlüsselrolle bei der Validierung neuer Funktionen für unsere Engineering-Teams und gehören zu den ersten Personen, die neue Features testen und mit Ihrem Branchenwissen aktiv Feedback einbringen.
+Ihre Aufgaben
+Organisation und Betreuung unseres Outdoor-Testgeländes und Sicherstellung von Sicherheit, Ordnung und Betriebsbereitschaft.
+Durchführung täglicher Feldtests an autonomen Baggern.
+Bereitstellung von wertvollem, umsetzbarem Feedback an das Entwicklungsteam zur Sicherstellung eines schnellen und effizienten F&amp;E-Testzyklus.
+Bedienung von Baumaschinen (Schulung wird bereitgestellt).
+Durchführung einfacher, routinemässiger Wartungsarbeiten an Testsystemen und Maschinen (Schulung wird bereitgestellt).
+Qualifikationen &amp; Fähigkeiten
+Fähigkeit, selbstständig in dynamischen Outdoor-Testumgebungen zu arbeiten.
+„Hands-on“-Mentalität – Sie packen an und scheuen sich nicht vor anspruchsvollen oder schmutzigen Aufgaben.
+Proaktive Arbeitsweise mit dem Blick für Verbesserungspotenziale über mehrere Testteams hinweg.
+Hohe Sorgfalt, Genauigkeit und ausgeprägtes Sicherheits- und Qualitätsbewusstsein.
+Gute Deutschkenntnisse zur Arbeitskommunikation (mündlich und schriftlich).
+Gute Englischkenntnisse zur Arbeitskommunikation (mündlich und schriftlich).
+Führerausweis Kategorie B.
+Vorteilhaft
+Eigenes Fahrzeug, um den Teststandort in Bremgarten (Kanton Aargau) zu erreichen.
+Erfahrung im Bedienen oder Arbeiten mit Bau- oder Landmaschinen.
+Führerausweis der Kategorie C.
+Praktische Erfahrung in der Reparatur von Autos, Maschinen, Fahrrädern oder Elektronik.
+Praktische Erfahrung mit unbemannten Systemen, Robotik oder Tests im Bereich Autonomie.
+Wenn du für diese Rolle brennst, deine Erfahrung jedoch nicht jeder Qualifikation entspricht, ermutigen wir dich trotzdem, dich zu bewerben. Vielleicht bist du genau die richtige Person für diese oder andere Positionen.
+Dies ist eine Gelegenheit, einem dynamischen und vielseitigen Team beizutreten und Teil eines jungen Start-ups zu werden, das den Schwerbau revolutionieren wird. Gravis Robotics bietet ein marktgerechtes Gehalt sowie einen Arbeitsort in der lebendigen Stadt Zürich. Als zukunftsorientiertes Start-up verstehen wir, dass Work-Life-Balance und Flexibilität für viele Fachkräfte wichtige Faktoren sind: Wenn du hochqualifiziert bist und die erforderlichen Fähigkeiten und Erfahrungen mitbringst, freuen wir uns auf deine Bewerbung und darauf, deine bevorzugte Arbeitsform im Bewerbungsgespräch zu besprechen.
+Gravis ist ein Arbeitgeber der Chancengleichheit. Wir setzen uns für den Aufbau eines inklusiven und vielfältigen Teams ein und diskriminieren niemanden aufgrund von Rasse, Hautfarbe, Herkunft, Nationalität, Religion, Geschlecht, sexueller Orientierung, Alter, Geschlechtsidentität, Geschlechtsausdruck, Behinderung, Veteranenstatus oder anderen gesetzlich geschützten Merkmalen.
+Wir sind ein internationales Team, das an Lösungen mit globaler Wirkung arbeitet: Um eine effiziente Kommunikation und Zusammenarbeit sicherzustellen, ist Englischkenntnis für alle Positionen Voraussetzung.
+========= English Version =========
+Gravis Robotics is a startup that turns heavy construction machines into intelligent and autonomous robots. Our unique combination of learning-based automation and augmented remote control lets one operator safely conduct a fleet of earthmoving machines in a gamified environment. Our team has over a decade of academic experience honing the cutting edge of large-scale robotics, and is rapidly growing to bring that expertise into a trillion dollar industry through active deployments with market leaders.
+About the Job
+At Gravis, we engineer solutions at the nexus of hardware and software every day: bringing new perception and control technologies onto awesome, autonomous machines. Our Rooftop Autonomous Control Kit (Rack) combines sensors, compute, communication and networking modules toward a manufacturer-agnostic solution that can be applied to a variety of construction machines regardless of type and age. As a Site Manager &amp; Autonomy Tester, you will help build and maintain our real-world testing environment for autonomous heavy machinery while directly supporting field testing on robotic excavators. You will be working daily at our testing facility and will play a key role in enabling our engineering teams to validate new capabilities, and you’ll be among the first to evaluate emerging features as they are developed and provide valuable feedback incorporating your industry knowledge.
+Your Responsibilities
+- Organize and manage our outdoor testing site, ensuring it remains safe, organized, and fully operational.
+- Execute daily field tests on multiple autonomous robotic excavators.
+- Provide valuable and actionable feedback to the development team to maintain a fast and efficient R&amp;D testing cycle.
+- Operate heavy machinery to restore terrain after testing (training provided).
+- Perform routine maintenance on testing equipment and machinery (training provided).
+Qualifications and Skills
+- Ability to work independently in dynamic, outdoor testing environments.
+- A roll-up-your-sleeves, get-it-done person who isn’t afraid of tough or gritty jobs
+- Proactive mindset to propose new solutions and improvements to support smooth operations across multiple testing teams
+- Strong attention to detail and commitment to safety and quality.
+- Good command of German for workplace communication (spoken and written).
+- Good command of English for workplace communication (spoken and written)
+- Driver’s license B category.
+Beneficial
+- Independent transport means to reach testing site (Bremgarten, Kanton Aargau)
+- Experience operating or working with construction or agricultural machinery.
+- Driver’s license C category.
+- Hands-on experience with repairs of cars, machinery, bikes or electronics.
+- Hands-on experience with unmanned systems, robotics, or autonomy testing.
+Don't meet every requirement? If you're enthusiastic about this role but your experience doesn't match every qualification, we still encourage you to apply. You might be the perfect candidate for this or other positions.
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup that will revolutionize heavy construction.  Gravis Robotics offers a fair market salary and a working location in the vibrant city of Zurich. As a forward-facing startup, we understand that work-life balance and flexibility are important considerations for many professionals: If you are a highly qualified candidate with the requisite skills and experience, we encourage you to apply and discuss your preferred working arrangement during the interview process.
+Gravis is an equal opportunity employer. We are committed to building an inclusive and diverse team, and do not discriminate based upon race, color, ancestry, national origin, religion, sex, sexual orientation, age, gender identity, gender expression, disability, veteran status, or other legally protected characteristics.
+We are an international team that is working to solve problems with a global impact: to facilitate efficient communication and collaboration, proficiency in English is a requirement for all roles.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="409.5" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gravis Robotics</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Robotics Software Engineer Internship - Autonomy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gravis Robotics is a startup that turns heavy construction machines into intelligent and autonomous robots.  Our unique combination of learning-based automation and augmented remote control lets one operator safely conduct a fleet of machines—from anywhere in the world. Our team has over a decade of academic experience honing the cutting edge of large-scale robotics, and is rapidly growing to bring that expertise into a multi-billion dollar industry.
+About the Job
+We are looking for passionate, skilled interns to join our team—and to actively contribute to the development and deployment of extraordinary construction robots. The ideal candidate should be self-motivated, capable of working autonomously and in small teams, and should have a strong desire to solve exciting, challenging, and applied problems.
+At Gravis, we engineer solutions at the nexus of hardware and software every day.  Your role would likely explore one or more of the following areas (based on experience and interest):
+Focus Areas
+AI-based control systems for heavy machinery
+Environment perception and navigation planning
+Machine controller
+Behavior development
+Requirements
+Currently pursuing a degree at a Swiss university
+Beneficial Experience (Role Based)
+Master’s level study (i.e. in robotics, computer science, mechanical or electrical engineering, design)
+Experience conducting research (e.g., through experience in an academic lab, or through previous internships and employment)
+Track record of setting up and deploying software on autonomous systems
+Experience with C++ and Python
+Proficiency with Linux and GIT
+Interest and/or experience in heavy construction
+Experience with Robot Operating System (ROS) is a plus
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup that iswill revolutionizinge heavy construction. You will get the chance to apply your skills to critical tasks, while learning from a team of world-class robotic engineers. Gravis Robotics offers a fair market salary and an excellent working location in the city of Zurich.
+We encourage applicants to include a selection of projects they have worked on, focusing on highlighting the programming languages used and individual contributions. If possible, please provide links to relevant repositories (e.g., GitHub), and any additional supporting material.
+Gravis is an equal opportunity employer. We are committed to inclusion and diversity, and do not discriminate based upon race, color, ancestry, national origin, religion, sex, sexual orientation, age, gender identity, gender expression, disability, veteran status, or other legally protected characteristics.  All qualified people are highly encouraged to apply.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="409.5" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gravis Robotics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Game Developer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gravis Robotics builds technology that turns heavy construction machines into intelligent and
+autonomous robots. Our unique combination of learning-based automation and augmented
+remote control lets one operator safely conduct a fleet of earthmoving machines with super-
+human productivity. Building upon over a decade of academic experience honing the cutting
+edge of large-scale robotics, we continue to innovate as we rapidly position ourselves in a trillion
+dollar industry through active deployments with market leaders.
+About the role
+We are seeking a Game Developer to join our team responsible for the interface used in
+gamifying the control and monitoring of autonomous heavy machines. You’ll work alongside
+game designers, UX/UI designers, C++ developers, and cloud/web engineers to build spatial
+user interfaces that are reliable, fast, and delightful to use. This is an exciting opportunity to
+apply your game development experience to real-world applications in autonomous systems
+while growing your skills in a collaborative, cross-disciplinary environment.
+Motivated junior engineers with C++ and game development experience are encouraged to
+apply.
+Responsibilities
+Maintain, optimize, and extend existing features and components in C++ and visual scripting workflows
+Collaborate with other game developers to implement end-to-end features across front-end and back-end
+Create compelling human-machine interfaces, simulations and digital twins of the real world
+Build, maintain, and improve unit tests and validation pipelines
+Work closely with UX/UI designers and game designers ensuring fidelity to design intent, smooth interactivity, and excellent performance
+Participate in technical discussions and architecture decisions within the team
+Partner closely with robotics and field application teams
+Required Qualifications
+Master's or Bachelor's degree in Computer Science or related field
+Completed coursework or projects in computer graphics, game development, or related areas
+Experience writing production-quality C++ code
+3+ years of professional experience developing games and in-game HUDs and/or GUIs
+Comfortable with game engine paradigms such as rendering, materials/shaders, scene management, and actors/components
+Proficient with Git
+Collaborative mindset with excellent communication skills
+Fluent in English
+Bonus
+Experience with Linux and Android app development
+Experience in performance optimization for real-time engine environments (CPU/GPU, shading, memory)
+Experience with networking, remote simulation, multiplayer or distributed simulation systems
+Familiarity with CAD design tools
+Don't meet every requirement? If you're enthusiastic about the role but your experience doesn't
+match every qualification, we still encourage you to apply. You may still be the perfect fit for
+another position - tell us about how you could accomplish your best at Gravis with a cover letter.
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup
+that will revolutionize heavy construction. Gravis Robotics offers a fair market salary and a
+working location in the vibrant city of Zurich. As a forward-facing startup, we understand that
+work-life balance and flexibility are important considerations for many professionals: If you are a
+highly qualified candidate with the requisite skills and experience, we encourage you to apply
+and discuss your preferred working arrangement during the interview process.
+Gravis is an equal opportunity employer. We are committed to building an inclusive and diverse
+team, and do not discriminate based upon race, color, ancestry, national origin, religion, sex,
+sexual orientation, age, gender identity, gender expression, disability, veteran status, or other
+legally protected characteristics.
+We are an international team that is working to solve problems with a global impact: to facilitate efficient communication and collaboration, proficiency in English is a requirement for all roles.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="409.5" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gravis Robotics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mid / Senior SLAM Engineer</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Gravis Robotics is a startup that turns heavy construction machines into intelligent and autonomous robots. Our unique combination of learning-based automation and augmented remote control lets one operator safely conduct a fleet of earthmoving machines in a gamified environment. Our team has over a decade of academic experience honing the cutting edge of large-scale robotics, and is rapidly growing to bring that expertise into a trillion dollar industry through active deployments with market leaders.
+About the Job
+At Gravis, we engineer solutions at the nexus of hardware and software every day: bringing new perception and control technologies onto awesome, autonomous machines. Our Rooftop Autonomous Control Kit (Rack) combines sensors, compute, communication and networking modules toward a manufacturer-agnostic solution that can be applied to a variety of construction machines regardless of type and age. We are seeking a skilled SLAM Engineer for our perception team: you will help design, develop, test and deploy customized forms of state-of-the-art localization+mapping, state estimation and calibration algorithms—while ensuring production quality implementation and timely execution.
+Responsibilities
+Design, prototype, and deploy advanced real-time localization, mapping, and calibration systems for autonomous heavy machines, by means of lidar, inertial, visual and GPS data.
+Establish and optimize testing procedures and performance metrics to ensure robust system behavior.
+Collaborate closely with multidisciplinary experts to improve the reliability and performance of the entire system.
+Required Qualifications
+Master’s or PhD in Computer Science, Mechanical Engineering, Electrical Engineering or a related field.
+3+ years of experience in developing and implementing robust localization + mapping algorithms.
+Experience writing production-quality C++/Python code in a Linux development environment.
+Experience with building/refining SLAM frameworks using Lidar-Intertial-Visual data.
+Risk management skills with the ability to re-prioritize work packages and meet deadlines in a fast paced work environment.
+Excellent communication skills with the ability to effectively convey technical concepts to both technical and non-technical stakeholders.
+Additional Beneficial Skills
+Experience with RADAR and GPS/GNSS integration into SLAM systems.
+Experience with ROS2.
+Don't meet every requirement? If you're enthusiastic about the role but your experience doesn't match every qualification, we still encourage you to apply. You may still be the perfect fit for another position - tell us about how you could accomplish your best at Gravis with a cover letter.
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup that will revolutionize heavy construction. Gravis Robotics offers a fair market salary and a working location in the vibrant city of Zurich. As a forward-facing startup, we understand that work-life balance and flexibility are important considerations for many professionals: If you are a highly qualified candidate with the requisite skills and experience, we encourage you to apply and discuss your preferred working arrangement during the interview process.
+Gravis is an equal opportunity employer. We are committed to building an inclusive and diverse team, and do not discriminate based upon race, color, ancestry, national origin, religion, sex, sexual orientation, age, gender identity, gender expression, disability, veteran status, or other legally protected characteristics.
+We are an international team that is working to solve problems with a global impact: to facilitate efficient communication and collaboration, proficiency in English is a requirement for all roles.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="409.5" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Gravis Robotics</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Standortleiter und Autonomie-Tester / Site Manager and Autonomy Tester</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standortleiter und Autonomie-Tester / Site Manager and Autonomy Tester
 Bremgarten (AG)
@@ -807,23 +1045,23 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="409.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
+    <row r="11" ht="409.5" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Gravis Robotics</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Robotics Software Engineer Internship - Autonomy</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Robotics Software Engineer Internship - Autonomy
 Zurich
@@ -859,23 +1097,23 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="409.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+    <row r="12" ht="409.5" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Gravis Robotics</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Game Developer</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Game Developer
 Zurich
@@ -940,23 +1178,23 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="409.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+    <row r="13" ht="409.5" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Gravis Robotics</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Mid / Senior SLAM Engineer</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mid / Senior SLAM Engineer
 Zurich
@@ -991,23 +1229,23 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="409.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
+    <row r="14" ht="409.5" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>AI Engineer - Imitation Learning (Senior)</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1040,23 +1278,23 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="409.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
+    <row r="15" ht="409.5" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>AI Engineer - Reinforcement Learning (Senior)</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1087,23 +1325,23 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="409.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
+    <row r="16" ht="409.5" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>AI Intern – Vision-Language-Action (VLA)</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As an AI Intern - VLA &amp; Data, you will assist the AI engineering team in developing data pipelines and training Vision-Language-Action (VLA) models for robotic systems. In this role, you will sit at the intersection of data engineering and model training, assisting the team in solving the "data bottleneck" in embodied AI. Additionally, your responsibilities will include building tools to analyze datasets, visualize model predictions, and debug performance. You will work closely with senior engineers to understand, curate, and visualize the massive amounts of multi-modal data our fleet generates.
@@ -1143,23 +1381,23 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="409.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
+    <row r="17" ht="409.5" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Senior AI Engineer - VLA Foundation Model</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1193,23 +1431,23 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="409.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
+    <row r="18" ht="409.5" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Senior AI Engineer Self-Supervised Learning</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1242,23 +1480,23 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="409.5" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
+    <row r="19" ht="409.5" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Assembly Operator</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1292,23 +1530,23 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="409.5" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
+    <row r="20" ht="409.5" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Embedded Systems Engineer (Senior)</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1351,23 +1589,23 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="409.5" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
+    <row r="21" ht="409.5" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Lab Manager</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1400,23 +1638,23 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="409.5" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
+    <row r="22" ht="409.5" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Mechanical Engineer (Junior)</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1447,23 +1685,23 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="409.5" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
+    <row r="23" ht="409.5" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mechanical Engineer (Senior)</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Senior Mechanical Engineer, you will lead the design, development, and testing of the physical components and systems of our robots. Your responsibilities will span conceptual design, mechanical engineering, design for manufacturing and assembly, and the integration of electronic systems, ensuring that our robots meet specific application requirements and are cost-effective for large-scale production. We are particularly interested in candidates who have demonstrated experience transitioning projects from prototyping and proof-of-concepts to MVPs, final products, and mass production. If you are passionate about pushing the boundaries of robotic designs, we invite you to join us in shaping the future of intelligent robotics.
@@ -1496,23 +1734,23 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="409.5" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
+    <row r="24" ht="409.5" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Mechanical Engineering Intern</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Robotics Hardware Intern, you will support the hardware engineering team in designing, prototyping, and testing physical components and systems for our robots. This role offers practical experience in mechanical design, electronics, and system integration within a dynamic and collaborative environment. We are committed to finding and nurturing exceptional talent; our internships are a key pathway to recruiting outstanding graduates who can make a significant impact in our team.
@@ -1540,23 +1778,23 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="409.5" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
+    <row r="25" ht="409.5" customHeight="1">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Safety &amp; Compliance Lead</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1596,23 +1834,23 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="409.5" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+    <row r="26" ht="409.5" customHeight="1">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Senior Buyer</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1653,23 +1891,23 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="409.5" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
+    <row r="27" ht="409.5" customHeight="1">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Senior Manufacturing Engineer</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1710,23 +1948,23 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="409.5" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
+    <row r="28" ht="409.5" customHeight="1">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Testing Engineer</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1757,23 +1995,23 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="409.5" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
+    <row r="29" ht="409.5" customHeight="1">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>QA Engineer - Robot Platform</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1802,23 +2040,23 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="409.5" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
+    <row r="30" ht="409.5" customHeight="1">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Robotics Wireless &amp; Network  Engineer</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1857,23 +2095,23 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="409.5" customHeight="1">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
+    <row r="31" ht="409.5" customHeight="1">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Senior Software Engineer – Backend</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -1951,23 +2189,23 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="409.5" customHeight="1">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
+    <row r="32" ht="409.5" customHeight="1">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Senior Software Engineer – MLOps</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -1999,23 +2237,23 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="409.5" customHeight="1">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
+    <row r="33" ht="409.5" customHeight="1">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Senior Software Engineer Robot Platform</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2047,23 +2285,23 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="409.5" customHeight="1">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
+    <row r="34" ht="409.5" customHeight="1">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>SLAM Engineer</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2094,23 +2332,23 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="409.5" customHeight="1">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
+    <row r="35" ht="409.5" customHeight="1">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>IT Manager</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 We are seeking a hands-on and technically strong IT Manager to lead the development of a scalable and secure IT infrastructure that will support our company's rapid growth. The ideal candidate is a technical leader who is not "above" buying and setting up laptops, but is also clever enough to automate or find efficient outsourcing solutions for such tasks. This role is global in scope, requiring a strong focus on communication and documentation to support our teams across three continents.
@@ -2141,23 +2379,23 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="409.5" customHeight="1">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
+    <row r="36" ht="409.5" customHeight="1">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Legal Counsel</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2205,23 +2443,23 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="409.5" customHeight="1">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
+    <row r="37" ht="409.5" customHeight="1">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Cashier and Office Assistant</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2266,23 +2504,23 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="409.5" customHeight="1">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
+    <row r="38" ht="409.5" customHeight="1">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Field Engineer (European Launch Team)</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2321,23 +2559,23 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="409.5" customHeight="1">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
+    <row r="39" ht="409.5" customHeight="1">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Field Engineer (US Launch Team)</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2376,23 +2614,23 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="409.5" customHeight="1">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
+    <row r="40" ht="409.5" customHeight="1">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Field Robot Operator</t>
         </is>
       </c>
-      <c r="D36" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Field Robot Operator, you will be responsible for driving a van and deploying our robot fleet in Austin, TX. You will work closely with remote operations teams to ensure the robot is deployed safely from our vans and successfully and efficiently carries our deliveries in accordance with our target volumes. Shifts last four to eight hours and may also be in early mornings and late evenings.  For individuals that are eager to get full exposure to robot operations or seek more variety in daily tasks, it is also possible to combine the Field Robot Operator and Remote Robot Supervisor role.
@@ -2417,23 +2655,23 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="409.5" customHeight="1">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+    <row r="41" ht="409.5" customHeight="1">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Field Robot Operator</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Field Robot Operator, you will be responsible for deploying and following our robot fleet in Zurich. This is a full-time position, but we are also open to offer an hourly-based, part-time role ideal for students or individuals seeking a flexible schedule, including evenings and weekends. You will work closely with remote operations teams to ensure the robot is deployed safely between merchants and customers and successfully and efficiently carries our deliveries in accordance with our target volumes. For individuals that are eager to get full exposure to robot operations or seek more variety in daily tasks, it is also possible to combine the Field Robot Operator and Remote Robot Supervisor role.
@@ -2456,23 +2694,23 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="409.5" customHeight="1">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Field Technician &amp; Robot Operator</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -2501,23 +2739,23 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="409.5" customHeight="1">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Launch Manager (European Launch Team)</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2564,23 +2802,23 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="409.5" customHeight="1">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Launch Manager (US Launch Team)</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -2628,23 +2866,23 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="409.5" customHeight="1">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Mechatronics Technician &amp; Robot Operator</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -2680,23 +2918,23 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Remote Robot Supervisor</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -2722,23 +2960,23 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Remote Robot Supervisor</t>
         </is>
       </c>
-      <c r="D43" s="5" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Remote Robot Supervisor, you will be responsible for operating advanced robotic systems, managing their deployment and performance in Austin, TX. You will collaborate closely with engineering teams to ensure the robots perform optimally and support real-world applications. Shifts last four to eight hours and may also be in early mornings and late evenings. For individuals that are eager to get full exposure to robot operations or seek more variety in daily tasks, it is also possible to combine the Remote Robot Supervisor and Field Robot Operator role.
@@ -2762,23 +3000,23 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Robotics Field Engineer</t>
         </is>
       </c>
-      <c r="D44" s="5" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Robotics Field Engineer, you will work on-site to install, maintain, troubleshoot, and repair robotic systems. You provide technical support to clients, ensuring that robotics systems operate efficiently and effectively in real-world environments. When you are not in the field, you will design, develop, and maintain the software systems that control and operate our robots. Your responsibilities include writing algorithms, creating control systems, and developing user interfaces for robotics applications. Moreover, you design and conduct tests in simulation and on real hardware.
@@ -2806,23 +3044,23 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Robotics Field Engineer</t>
         </is>
       </c>
-      <c r="D45" s="5" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Robotics Field Engineer, you will work on-site to install, maintain, troubleshoot, and repair robotic systems. You provide technical support to clients, ensuring that robotics systems operate efficiently and effectively in real-world environments. When you are not in the field, you will design, develop, and maintain the software systems that control and operate our robots. Your responsibilities include writing algorithms, creating control systems, and developing user interfaces for robotics applications. Moreover, you design and conduct tests in simulation and on real hardware.
@@ -2849,74 +3087,6 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>AI Engineer - Imitation Learning (Senior)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>AI Engineer - Reinforcement Learning (Senior)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>AI Intern – Vision-Language-Action (VLA)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>Senior AI Engineer - VLA Foundation Model</t>
-        </is>
-      </c>
-    </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
@@ -2930,7 +3100,7 @@
       </c>
       <c r="C50" s="5" t="inlineStr">
         <is>
-          <t>Senior AI Engineer Self-Supervised Learning</t>
+          <t>AI Engineer - Imitation Learning (Senior)</t>
         </is>
       </c>
     </row>
@@ -2947,7 +3117,7 @@
       </c>
       <c r="C51" s="5" t="inlineStr">
         <is>
-          <t>Assembly Operator</t>
+          <t>AI Engineer - Reinforcement Learning (Senior)</t>
         </is>
       </c>
     </row>
@@ -2964,7 +3134,7 @@
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>Embedded Systems Engineer (Senior)</t>
+          <t>AI Intern – Vision-Language-Action (VLA)</t>
         </is>
       </c>
     </row>
@@ -2981,7 +3151,7 @@
       </c>
       <c r="C53" s="5" t="inlineStr">
         <is>
-          <t>Lab Manager</t>
+          <t>Senior AI Engineer - VLA Foundation Model</t>
         </is>
       </c>
     </row>
@@ -2998,7 +3168,7 @@
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>Mechanical Engineer (Junior)</t>
+          <t>Senior AI Engineer Self-Supervised Learning</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3185,7 @@
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>Mechanical Engineer (Senior)</t>
+          <t>Assembly Operator</t>
         </is>
       </c>
     </row>
@@ -3032,7 +3202,7 @@
       </c>
       <c r="C56" s="5" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Embedded Systems Engineer (Senior)</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3219,7 @@
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
-          <t>Safety &amp; Compliance Lead</t>
+          <t>Lab Manager</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3236,7 @@
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>Senior Buyer</t>
+          <t>Mechanical Engineer (Junior)</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3253,7 @@
       </c>
       <c r="C59" s="5" t="inlineStr">
         <is>
-          <t>Senior Manufacturing Engineer</t>
+          <t>Mechanical Engineer (Senior)</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3270,7 @@
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>Testing Engineer</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3287,7 @@
       </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
-          <t>QA Engineer - Robot Platform</t>
+          <t>Safety &amp; Compliance Lead</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3304,7 @@
       </c>
       <c r="C62" s="5" t="inlineStr">
         <is>
-          <t>Robotics Wireless &amp; Network  Engineer</t>
+          <t>Senior Buyer</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3321,7 @@
       </c>
       <c r="C63" s="5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer – Backend</t>
+          <t>Senior Manufacturing Engineer</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3338,7 @@
       </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer – MLOps</t>
+          <t>Testing Engineer</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3355,7 @@
       </c>
       <c r="C65" s="5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer Robot Platform</t>
+          <t>QA Engineer - Robot Platform</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3372,7 @@
       </c>
       <c r="C66" s="5" t="inlineStr">
         <is>
-          <t>SLAM Engineer</t>
+          <t>Robotics Wireless &amp; Network  Engineer</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3389,7 @@
       </c>
       <c r="C67" s="5" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Senior Software Engineer – Backend</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3406,7 @@
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>Legal Counsel</t>
+          <t>Senior Software Engineer – MLOps</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3423,7 @@
       </c>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>Cashier and Office Assistant</t>
+          <t>Senior Software Engineer Robot Platform</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3440,7 @@
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
-          <t>Field Engineer (European Launch Team)</t>
+          <t>SLAM Engineer</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3457,7 @@
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>Field Engineer (US Launch Team)</t>
+          <t>IT Manager</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3474,7 @@
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>Field Robot Operator</t>
+          <t>Legal Counsel</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3491,7 @@
       </c>
       <c r="C73" s="5" t="inlineStr">
         <is>
-          <t>Field Robot Operator</t>
+          <t>Cashier and Office Assistant</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3508,7 @@
       </c>
       <c r="C74" s="5" t="inlineStr">
         <is>
-          <t>Field Technician &amp; Robot Operator</t>
+          <t>Field Engineer (European Launch Team)</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3525,7 @@
       </c>
       <c r="C75" s="5" t="inlineStr">
         <is>
-          <t>Launch Manager (European Launch Team)</t>
+          <t>Field Engineer (US Launch Team)</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3542,7 @@
       </c>
       <c r="C76" s="5" t="inlineStr">
         <is>
-          <t>Launch Manager (US Launch Team)</t>
+          <t>Field Robot Operator</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3559,7 @@
       </c>
       <c r="C77" s="5" t="inlineStr">
         <is>
-          <t>Mechatronics Technician &amp; Robot Operator</t>
+          <t>Field Robot Operator</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3576,7 @@
       </c>
       <c r="C78" s="5" t="inlineStr">
         <is>
-          <t>Remote Robot Supervisor</t>
+          <t>Field Technician &amp; Robot Operator</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3593,7 @@
       </c>
       <c r="C79" s="5" t="inlineStr">
         <is>
-          <t>Remote Robot Supervisor</t>
+          <t>Launch Manager (European Launch Team)</t>
         </is>
       </c>
     </row>
@@ -3440,7 +3610,7 @@
       </c>
       <c r="C80" s="5" t="inlineStr">
         <is>
-          <t>Robotics Field Engineer</t>
+          <t>Launch Manager (US Launch Team)</t>
         </is>
       </c>
     </row>
@@ -3457,27 +3627,95 @@
       </c>
       <c r="C81" s="5" t="inlineStr">
         <is>
-          <t>Robotics Field Engineer</t>
+          <t>Mechatronics Technician &amp; Robot Operator</t>
         </is>
       </c>
     </row>
     <row r="82" ht="409.5" customHeight="1">
       <c r="A82" s="5" t="inlineStr">
         <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>Remote Robot Supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="409.5" customHeight="1">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>Remote Robot Supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="409.5" customHeight="1">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>Robotics Field Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="409.5" customHeight="1">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>02/01/2026</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>Robotics Field Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="409.5" customHeight="1">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C82" s="5" t="inlineStr">
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
         <is>
           <t>AI Engineer - Imitation Learning (Senior)</t>
         </is>
       </c>
-      <c r="D82" s="5" t="inlineStr">
+      <c r="D86" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -3510,23 +3748,23 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="409.5" customHeight="1">
-      <c r="A83" s="5" t="inlineStr">
+    <row r="87" ht="409.5" customHeight="1">
+      <c r="A87" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C83" s="5" t="inlineStr">
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
         <is>
           <t>AI Engineer - Reinforcement Learning (Senior)</t>
         </is>
       </c>
-      <c r="D83" s="5" t="inlineStr">
+      <c r="D87" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -3557,23 +3795,23 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="409.5" customHeight="1">
-      <c r="A84" s="5" t="inlineStr">
+    <row r="88" ht="409.5" customHeight="1">
+      <c r="A88" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C84" s="5" t="inlineStr">
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
         <is>
           <t>AI Intern – Vision-Language-Action (VLA)</t>
         </is>
       </c>
-      <c r="D84" s="5" t="inlineStr">
+      <c r="D88" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As an AI Intern - VLA &amp; Data, you will assist the AI engineering team in developing data pipelines and training Vision-Language-Action (VLA) models for robotic systems. In this role, you will sit at the intersection of data engineering and model training, assisting the team in solving the "data bottleneck" in embodied AI. Additionally, your responsibilities will include building tools to analyze datasets, visualize model predictions, and debug performance. You will work closely with senior engineers to understand, curate, and visualize the massive amounts of multi-modal data our fleet generates.
@@ -3613,23 +3851,23 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="409.5" customHeight="1">
-      <c r="A85" s="5" t="inlineStr">
+    <row r="89" ht="409.5" customHeight="1">
+      <c r="A89" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B85" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C85" s="5" t="inlineStr">
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
         <is>
           <t>Senior AI Engineer - VLA Foundation Model</t>
         </is>
       </c>
-      <c r="D85" s="5" t="inlineStr">
+      <c r="D89" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -3663,23 +3901,23 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="409.5" customHeight="1">
-      <c r="A86" s="5" t="inlineStr">
+    <row r="90" ht="409.5" customHeight="1">
+      <c r="A90" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B86" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C86" s="5" t="inlineStr">
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
         <is>
           <t>Senior AI Engineer Self-Supervised Learning</t>
         </is>
       </c>
-      <c r="D86" s="5" t="inlineStr">
+      <c r="D90" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -3712,23 +3950,23 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="409.5" customHeight="1">
-      <c r="A87" s="5" t="inlineStr">
+    <row r="91" ht="409.5" customHeight="1">
+      <c r="A91" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B87" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C87" s="5" t="inlineStr">
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
         <is>
           <t>Assembly Operator</t>
         </is>
       </c>
-      <c r="D87" s="5" t="inlineStr">
+      <c r="D91" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -3762,23 +4000,23 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="409.5" customHeight="1">
-      <c r="A88" s="5" t="inlineStr">
+    <row r="92" ht="409.5" customHeight="1">
+      <c r="A92" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B88" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C88" s="5" t="inlineStr">
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
         <is>
           <t>Embedded Systems Engineer (Senior)</t>
         </is>
       </c>
-      <c r="D88" s="5" t="inlineStr">
+      <c r="D92" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -3821,23 +4059,23 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="409.5" customHeight="1">
-      <c r="A89" s="5" t="inlineStr">
+    <row r="93" ht="409.5" customHeight="1">
+      <c r="A93" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B89" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C89" s="5" t="inlineStr">
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
         <is>
           <t>Lab Manager</t>
         </is>
       </c>
-      <c r="D89" s="5" t="inlineStr">
+      <c r="D93" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -3870,23 +4108,23 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="409.5" customHeight="1">
-      <c r="A90" s="5" t="inlineStr">
+    <row r="94" ht="409.5" customHeight="1">
+      <c r="A94" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B90" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C90" s="5" t="inlineStr">
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
         <is>
           <t>Mechanical Engineer (Junior)</t>
         </is>
       </c>
-      <c r="D90" s="5" t="inlineStr">
+      <c r="D94" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -3917,23 +4155,23 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="409.5" customHeight="1">
-      <c r="A91" s="5" t="inlineStr">
+    <row r="95" ht="409.5" customHeight="1">
+      <c r="A95" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B91" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C91" s="5" t="inlineStr">
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
         <is>
           <t>Mechanical Engineer (Senior)</t>
         </is>
       </c>
-      <c r="D91" s="5" t="inlineStr">
+      <c r="D95" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Senior Mechanical Engineer, you will lead the design, development, and testing of the physical components and systems of our robots. Your responsibilities will span conceptual design, mechanical engineering, design for manufacturing and assembly, and the integration of electronic systems, ensuring that our robots meet specific application requirements and are cost-effective for large-scale production. We are particularly interested in candidates who have demonstrated experience transitioning projects from prototyping and proof-of-concepts to MVPs, final products, and mass production. If you are passionate about pushing the boundaries of robotic designs, we invite you to join us in shaping the future of intelligent robotics.
@@ -3966,23 +4204,23 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="409.5" customHeight="1">
-      <c r="A92" s="5" t="inlineStr">
+    <row r="96" ht="409.5" customHeight="1">
+      <c r="A96" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B92" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C92" s="5" t="inlineStr">
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
         <is>
           <t>Mechanical Engineering Intern</t>
         </is>
       </c>
-      <c r="D92" s="5" t="inlineStr">
+      <c r="D96" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Robotics Hardware Intern, you will support the hardware engineering team in designing, prototyping, and testing physical components and systems for our robots. This role offers practical experience in mechanical design, electronics, and system integration within a dynamic and collaborative environment. We are committed to finding and nurturing exceptional talent; our internships are a key pathway to recruiting outstanding graduates who can make a significant impact in our team.
@@ -4010,23 +4248,23 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="409.5" customHeight="1">
-      <c r="A93" s="5" t="inlineStr">
+    <row r="97" ht="409.5" customHeight="1">
+      <c r="A97" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B93" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C93" s="5" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
         <is>
           <t>Safety &amp; Compliance Lead</t>
         </is>
       </c>
-      <c r="D93" s="5" t="inlineStr">
+      <c r="D97" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -4066,23 +4304,23 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="409.5" customHeight="1">
-      <c r="A94" s="5" t="inlineStr">
+    <row r="98" ht="409.5" customHeight="1">
+      <c r="A98" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B94" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C94" s="5" t="inlineStr">
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
         <is>
           <t>Senior Buyer</t>
         </is>
       </c>
-      <c r="D94" s="5" t="inlineStr">
+      <c r="D98" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4123,23 +4361,23 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="409.5" customHeight="1">
-      <c r="A95" s="5" t="inlineStr">
+    <row r="99" ht="409.5" customHeight="1">
+      <c r="A99" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B95" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C95" s="5" t="inlineStr">
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
         <is>
           <t>Senior Manufacturing Engineer</t>
         </is>
       </c>
-      <c r="D95" s="5" t="inlineStr">
+      <c r="D99" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4180,23 +4418,23 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="409.5" customHeight="1">
-      <c r="A96" s="5" t="inlineStr">
+    <row r="100" ht="409.5" customHeight="1">
+      <c r="A100" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B96" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C96" s="5" t="inlineStr">
+      <c r="B100" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
         <is>
           <t>Testing Engineer</t>
         </is>
       </c>
-      <c r="D96" s="5" t="inlineStr">
+      <c r="D100" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -4227,23 +4465,23 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="409.5" customHeight="1">
-      <c r="A97" s="5" t="inlineStr">
+    <row r="101" ht="409.5" customHeight="1">
+      <c r="A101" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B97" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C97" s="5" t="inlineStr">
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
         <is>
           <t>QA Engineer - Robot Platform</t>
         </is>
       </c>
-      <c r="D97" s="5" t="inlineStr">
+      <c r="D101" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4272,23 +4510,23 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="409.5" customHeight="1">
-      <c r="A98" s="5" t="inlineStr">
+    <row r="102" ht="409.5" customHeight="1">
+      <c r="A102" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B98" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C98" s="5" t="inlineStr">
+      <c r="B102" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
         <is>
           <t>Robotics Wireless &amp; Network  Engineer</t>
         </is>
       </c>
-      <c r="D98" s="5" t="inlineStr">
+      <c r="D102" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4327,23 +4565,23 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="409.5" customHeight="1">
-      <c r="A99" s="5" t="inlineStr">
+    <row r="103" ht="409.5" customHeight="1">
+      <c r="A103" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B99" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C99" s="5" t="inlineStr">
+      <c r="B103" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
         <is>
           <t>Senior Software Engineer – Backend</t>
         </is>
       </c>
-      <c r="D99" s="5" t="inlineStr">
+      <c r="D103" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4421,23 +4659,23 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="409.5" customHeight="1">
-      <c r="A100" s="5" t="inlineStr">
+    <row r="104" ht="409.5" customHeight="1">
+      <c r="A104" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B100" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C100" s="5" t="inlineStr">
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
         <is>
           <t>Senior Software Engineer – MLOps</t>
         </is>
       </c>
-      <c r="D100" s="5" t="inlineStr">
+      <c r="D104" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -4469,23 +4707,23 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="409.5" customHeight="1">
-      <c r="A101" s="5" t="inlineStr">
+    <row r="105" ht="409.5" customHeight="1">
+      <c r="A105" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B101" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C101" s="5" t="inlineStr">
+      <c r="B105" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
         <is>
           <t>Senior Software Engineer Robot Platform</t>
         </is>
       </c>
-      <c r="D101" s="5" t="inlineStr">
+      <c r="D105" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4517,23 +4755,23 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="409.5" customHeight="1">
-      <c r="A102" s="5" t="inlineStr">
+    <row r="106" ht="409.5" customHeight="1">
+      <c r="A106" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B102" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C102" s="5" t="inlineStr">
+      <c r="B106" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
         <is>
           <t>SLAM Engineer</t>
         </is>
       </c>
-      <c r="D102" s="5" t="inlineStr">
+      <c r="D106" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4564,23 +4802,23 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="409.5" customHeight="1">
-      <c r="A103" s="5" t="inlineStr">
+    <row r="107" ht="409.5" customHeight="1">
+      <c r="A107" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B103" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C103" s="5" t="inlineStr">
+      <c r="B107" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
         <is>
           <t>IT Manager</t>
         </is>
       </c>
-      <c r="D103" s="5" t="inlineStr">
+      <c r="D107" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 We are seeking a hands-on and technically strong IT Manager to lead the development of a scalable and secure IT infrastructure that will support our company's rapid growth. The ideal candidate is a technical leader who is not "above" buying and setting up laptops, but is also clever enough to automate or find efficient outsourcing solutions for such tasks. This role is global in scope, requiring a strong focus on communication and documentation to support our teams across three continents.
@@ -4611,23 +4849,23 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="409.5" customHeight="1">
-      <c r="A104" s="5" t="inlineStr">
+    <row r="108" ht="409.5" customHeight="1">
+      <c r="A108" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B104" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
         <is>
           <t>Legal Counsel</t>
         </is>
       </c>
-      <c r="D104" s="5" t="inlineStr">
+      <c r="D108" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4675,23 +4913,23 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="409.5" customHeight="1">
-      <c r="A105" s="5" t="inlineStr">
+    <row r="109" ht="409.5" customHeight="1">
+      <c r="A109" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B105" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C105" s="5" t="inlineStr">
+      <c r="B109" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
         <is>
           <t>Cashier and Office Assistant</t>
         </is>
       </c>
-      <c r="D105" s="5" t="inlineStr">
+      <c r="D109" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4736,23 +4974,23 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="409.5" customHeight="1">
-      <c r="A106" s="5" t="inlineStr">
+    <row r="110" ht="409.5" customHeight="1">
+      <c r="A110" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B106" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C106" s="5" t="inlineStr">
+      <c r="B110" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
         <is>
           <t>Field Engineer (European Launch Team)</t>
         </is>
       </c>
-      <c r="D106" s="5" t="inlineStr">
+      <c r="D110" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4791,23 +5029,23 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="409.5" customHeight="1">
-      <c r="A107" s="5" t="inlineStr">
+    <row r="111" ht="409.5" customHeight="1">
+      <c r="A111" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B107" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C107" s="5" t="inlineStr">
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
         <is>
           <t>Field Engineer (US Launch Team)</t>
         </is>
       </c>
-      <c r="D107" s="5" t="inlineStr">
+      <c r="D111" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -4846,23 +5084,23 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="409.5" customHeight="1">
-      <c r="A108" s="5" t="inlineStr">
+    <row r="112" ht="409.5" customHeight="1">
+      <c r="A112" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B108" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C108" s="5" t="inlineStr">
+      <c r="B112" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C112" s="5" t="inlineStr">
         <is>
           <t>Field Robot Operator</t>
         </is>
       </c>
-      <c r="D108" s="5" t="inlineStr">
+      <c r="D112" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Field Robot Operator, you will be responsible for driving a van and deploying our robot fleet in Austin, TX. You will work closely with remote operations teams to ensure the robot is deployed safely from our vans and successfully and efficiently carries our deliveries in accordance with our target volumes. Shifts last four to eight hours and may also be in early mornings and late evenings.  For individuals that are eager to get full exposure to robot operations or seek more variety in daily tasks, it is also possible to combine the Field Robot Operator and Remote Robot Supervisor role.
@@ -4887,23 +5125,23 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="409.5" customHeight="1">
-      <c r="A109" s="5" t="inlineStr">
+    <row r="113" ht="409.5" customHeight="1">
+      <c r="A113" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B109" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C109" s="5" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="inlineStr">
         <is>
           <t>Field Robot Operator</t>
         </is>
       </c>
-      <c r="D109" s="5" t="inlineStr">
+      <c r="D113" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Field Robot Operator, you will be responsible for deploying and following our robot fleet in Zurich. This is a full-time position, but we are also open to offer an hourly-based, part-time role ideal for students or individuals seeking a flexible schedule, including evenings and weekends. You will work closely with remote operations teams to ensure the robot is deployed safely between merchants and customers and successfully and efficiently carries our deliveries in accordance with our target volumes. For individuals that are eager to get full exposure to robot operations or seek more variety in daily tasks, it is also possible to combine the Field Robot Operator and Remote Robot Supervisor role.
@@ -4926,23 +5164,23 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="409.5" customHeight="1">
-      <c r="A110" s="5" t="inlineStr">
+    <row r="114" ht="409.5" customHeight="1">
+      <c r="A114" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B110" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C110" s="5" t="inlineStr">
+      <c r="B114" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C114" s="5" t="inlineStr">
         <is>
           <t>Field Technician &amp; Robot Operator</t>
         </is>
       </c>
-      <c r="D110" s="5" t="inlineStr">
+      <c r="D114" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -4971,23 +5209,23 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="409.5" customHeight="1">
-      <c r="A111" s="5" t="inlineStr">
+    <row r="115" ht="409.5" customHeight="1">
+      <c r="A115" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B111" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C111" s="5" t="inlineStr">
+      <c r="B115" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
         <is>
           <t>Launch Manager (European Launch Team)</t>
         </is>
       </c>
-      <c r="D111" s="5" t="inlineStr">
+      <c r="D115" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -5034,23 +5272,23 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="409.5" customHeight="1">
-      <c r="A112" s="5" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B112" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C112" s="5" t="inlineStr">
+      <c r="B116" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
         <is>
           <t>Launch Manager (US Launch Team)</t>
         </is>
       </c>
-      <c r="D112" s="5" t="inlineStr">
+      <c r="D116" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics. Join our innovative team, renowned for pioneering robotic design and neural network applications in robotics that improve environmental understanding and decision-making. With a robust research foundation and notable contributions from ETH Zurich, we are leaders in translating artificial intelligence and robotics into practical, real-world applications.
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
@@ -5098,23 +5336,23 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="409.5" customHeight="1">
-      <c r="A113" s="5" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B113" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C113" s="5" t="inlineStr">
+      <c r="B117" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="inlineStr">
         <is>
           <t>Mechatronics Technician &amp; Robot Operator</t>
         </is>
       </c>
-      <c r="D113" s="5" t="inlineStr">
+      <c r="D117" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -5150,23 +5388,23 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="409.5" customHeight="1">
-      <c r="A114" s="5" t="inlineStr">
+    <row r="118">
+      <c r="A118" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B114" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C114" s="5" t="inlineStr">
+      <c r="B118" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C118" s="5" t="inlineStr">
         <is>
           <t>Remote Robot Supervisor</t>
         </is>
       </c>
-      <c r="D114" s="5" t="inlineStr">
+      <c r="D118" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 Job Description
@@ -5192,23 +5430,23 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="409.5" customHeight="1">
-      <c r="A115" s="5" t="inlineStr">
+    <row r="119">
+      <c r="A119" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B115" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C115" s="5" t="inlineStr">
+      <c r="B119" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
         <is>
           <t>Remote Robot Supervisor</t>
         </is>
       </c>
-      <c r="D115" s="5" t="inlineStr">
+      <c r="D119" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Remote Robot Supervisor, you will be responsible for operating advanced robotic systems, managing their deployment and performance in Austin, TX. You will collaborate closely with engineering teams to ensure the robots perform optimally and support real-world applications. Shifts last four to eight hours and may also be in early mornings and late evenings. For individuals that are eager to get full exposure to robot operations or seek more variety in daily tasks, it is also possible to combine the Remote Robot Supervisor and Field Robot Operator role.
@@ -5232,23 +5470,23 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="5" t="inlineStr">
+    <row r="120">
+      <c r="A120" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B116" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C116" s="5" t="inlineStr">
+      <c r="B120" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
         <is>
           <t>Robotics Field Engineer</t>
         </is>
       </c>
-      <c r="D116" s="5" t="inlineStr">
+      <c r="D120" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Robotics Field Engineer, you will work on-site to install, maintain, troubleshoot, and repair robotic systems. You provide technical support to clients, ensuring that robotics systems operate efficiently and effectively in real-world environments. When you are not in the field, you will design, develop, and maintain the software systems that control and operate our robots. Your responsibilities include writing algorithms, creating control systems, and developing user interfaces for robotics applications. Moreover, you design and conduct tests in simulation and on real hardware.
@@ -5276,23 +5514,23 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
+    <row r="121">
+      <c r="A121" s="5" t="inlineStr">
         <is>
           <t>01/31/2026</t>
         </is>
       </c>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>RIVR</t>
-        </is>
-      </c>
-      <c r="C117" s="5" t="inlineStr">
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>RIVR</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
         <is>
           <t>Robotics Field Engineer</t>
         </is>
       </c>
-      <c r="D117" s="5" t="inlineStr">
+      <c r="D121" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">RIVR is a Swiss robotics company pioneering Physical AI and robotic solutions to revolutionize last-mile delivery, giving 1 human the power of 1000. Through the combination of artificial neural networks and innovative robot designs with wheels and legs, RIVR aims to enhance efficiency, sustainability, and scalability in last-mile delivery. Founded as Swiss-Mile, the company rebranded to RIVR in 2025 to better reflect its mission of driving the future of intelligent robotics.
 As a Robotics Field Engineer, you will work on-site to install, maintain, troubleshoot, and repair robotic systems. You provide technical support to clients, ensuring that robotics systems operate efficiently and effectively in real-world environments. When you are not in the field, you will design, develop, and maintain the software systems that control and operate our robots. Your responsibilities include writing algorithms, creating control systems, and developing user interfaces for robotics applications. Moreover, you design and conduct tests in simulation and on real hardware.
@@ -5319,21 +5557,21 @@
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="3" t="n">
+    <row r="122">
+      <c r="A122" s="3" t="n">
         <v>46053</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Leica Geosystems AG</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>Director Robotics Ai</t>
         </is>
       </c>
-      <c r="D118" s="2" t="inlineStr">
+      <c r="D122" s="2" t="inlineStr">
         <is>
           <t>Job description
 **Come build the autonomous future with us. One humanoid at a time.**:
@@ -5384,21 +5622,21 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="3" t="n">
+    <row r="123">
+      <c r="A123" s="3" t="n">
         <v>46053</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Hexagon AB</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>Robotics Technical Lead - Teleoperation (f/m/d)</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr">
+      <c r="D123" s="2" t="inlineStr">
         <is>
           <t>Job description
 Robotics Technical Lead - Teleoperation (f/m/d)
@@ -5433,18 +5671,6 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="3" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="n"/>
-    </row>
     <row r="124">
       <c r="A124" s="3" t="n"/>
     </row>
@@ -5738,10 +5964,22 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="n"/>
-      <c r="B221" s="4" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="n"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="n"/>
+      <c r="B225" s="4" t="n"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576">

--- a/main/Scrapify.xlsx
+++ b/main/Scrapify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicaja\Desktop\DB\DB-Bussiness\2019.01.01_SmartCodeACADEMY_Official\2026.31.01_GitHub_PRJ_Scrapify\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB9B6F-953D-41EA-96DB-1511A765CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{390C83E8-6AD5-439F-8AB7-FA4F4FC5D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -1353,22 +1354,22 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1674,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1686,8 +1687,8 @@
     <col min="4" max="4" width="65.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="135.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
-    <col min="7" max="13" width="9.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="15" width="9.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,10 +2323,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2337,11 +2338,11 @@
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2485,27 +2486,99 @@
     <row r="94" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2523,10 +2596,10 @@
     <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2546,14 +2619,38 @@
     <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2589,47 +2686,48 @@
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2659,62 +2757,66 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="268" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -2722,425 +2824,425 @@
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
-      <c r="B282" s="4"/>
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="4"/>
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="B284" s="4"/>
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
-      <c r="B296" s="4"/>
+      <c r="A296" s="5"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
+      <c r="A297" s="5"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
+      <c r="A298" s="5"/>
+      <c r="B298" s="5"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
+      <c r="A299" s="5"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
+      <c r="A300" s="5"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
+      <c r="A301" s="5"/>
+      <c r="B301" s="5"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
+      <c r="A302" s="5"/>
+      <c r="B302" s="5"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
-      <c r="B304" s="4"/>
+      <c r="A304" s="5"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
+      <c r="A305" s="5"/>
+      <c r="B305" s="5"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
+      <c r="A318" s="5"/>
+      <c r="B318" s="5"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="4"/>
-      <c r="B323" s="4"/>
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
+      <c r="A325" s="5"/>
+      <c r="B325" s="5"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
+      <c r="A326" s="5"/>
+      <c r="B326" s="5"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="A328" s="5"/>
+      <c r="B328" s="5"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
+      <c r="A329" s="5"/>
+      <c r="B329" s="5"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
+      <c r="A332" s="5"/>
+      <c r="B332" s="5"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="4"/>
-      <c r="B334" s="4"/>
+      <c r="A334" s="5"/>
+      <c r="B334" s="5"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
+      <c r="A335" s="5"/>
+      <c r="B335" s="5"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
+      <c r="A336" s="5"/>
+      <c r="B336" s="5"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
-      <c r="B338" s="4"/>
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
-      <c r="B339" s="4"/>
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
-      <c r="B340" s="4"/>
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="4"/>
-      <c r="B342" s="4"/>
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
-      <c r="B343" s="4"/>
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="4"/>
-      <c r="B344" s="4"/>
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
-      <c r="B346" s="4"/>
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
+      <c r="A349" s="5"/>
+      <c r="B349" s="5"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="4"/>
-      <c r="B350" s="4"/>
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="4"/>
-      <c r="B351" s="4"/>
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="4"/>
-      <c r="B352" s="4"/>
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="4"/>
-      <c r="B353" s="4"/>
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="4"/>
-      <c r="B354" s="4"/>
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
-      <c r="B355" s="4"/>
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="4"/>
-      <c r="B356" s="4"/>
+      <c r="A356" s="5"/>
+      <c r="B356" s="5"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="4"/>
-      <c r="B357" s="4"/>
+      <c r="A357" s="5"/>
+      <c r="B357" s="5"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
-      <c r="B358" s="4"/>
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
-      <c r="B359" s="4"/>
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="4"/>
-      <c r="B360" s="4"/>
+      <c r="A360" s="5"/>
+      <c r="B360" s="5"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="4"/>
-      <c r="B361" s="4"/>
+      <c r="A361" s="5"/>
+      <c r="B361" s="5"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="4"/>
-      <c r="B362" s="4"/>
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="4"/>
-      <c r="B363" s="4"/>
+      <c r="A363" s="5"/>
+      <c r="B363" s="5"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
-      <c r="B364" s="4"/>
+      <c r="A364" s="5"/>
+      <c r="B364" s="5"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="4"/>
-      <c r="B365" s="4"/>
+      <c r="A365" s="5"/>
+      <c r="B365" s="5"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="4"/>
-      <c r="B366" s="4"/>
+      <c r="A366" s="5"/>
+      <c r="B366" s="5"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="4"/>
-      <c r="B367" s="4"/>
+      <c r="A367" s="5"/>
+      <c r="B367" s="5"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="4"/>
-      <c r="B368" s="4"/>
+      <c r="A368" s="5"/>
+      <c r="B368" s="5"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="4"/>
-      <c r="B369" s="4"/>
+      <c r="A369" s="5"/>
+      <c r="B369" s="5"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="4"/>
-      <c r="B370" s="4"/>
+      <c r="A370" s="5"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="4"/>
-      <c r="B371" s="4"/>
+      <c r="A371" s="5"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="4"/>
-      <c r="B372" s="4"/>
+      <c r="A372" s="5"/>
+      <c r="B372" s="5"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="4"/>
-      <c r="B373" s="4"/>
+      <c r="A373" s="5"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="4"/>
-      <c r="B374" s="4"/>
+      <c r="A374" s="5"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
+      <c r="A375" s="5"/>
+      <c r="B375" s="5"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="B376" s="4"/>
-      <c r="C376" s="5"/>
+      <c r="A376" s="5"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="6"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="4"/>
-      <c r="B377" s="4"/>
+      <c r="A377" s="5"/>
+      <c r="B377" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1048576">

--- a/main/Scrapify.xlsx
+++ b/main/Scrapify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicaja\Desktop\DB\DB-Bussiness\2019.01.01_SmartCodeACADEMY_Official\2026.31.01_GitHub_PRJ_Scrapify\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06EF209-72B6-48BC-8E95-9019B052E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F3F9E-8875-4D45-AF05-254C0C11F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F398"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -440,8 +440,8 @@
     <col min="4" max="4" width="65.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="135.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
-    <col min="7" max="17" width="9.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="22" width="9.140625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -465,110 +465,44 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -601,91 +535,83 @@
     <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,123 +628,134 @@
     <row r="110" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-    </row>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -834,98 +771,47 @@
     <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -939,240 +825,247 @@
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+    </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
-      <c r="B296" s="5"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
-      <c r="B300" s="5"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="5"/>
-      <c r="B302" s="5"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="5"/>
-      <c r="B303" s="5"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="5"/>
-      <c r="B304" s="5"/>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="5"/>
-      <c r="B305" s="5"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="5"/>
-      <c r="B306" s="5"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="5"/>
-      <c r="B308" s="5"/>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="5"/>
-      <c r="B309" s="5"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="5"/>
-      <c r="B310" s="5"/>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="5"/>
-      <c r="B312" s="5"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="5"/>
-      <c r="B313" s="5"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
     </row>
@@ -1432,62 +1325,142 @@
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
-      <c r="C397" s="6"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="5"/>
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="5"/>
+      <c r="B400" s="5"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="5"/>
+      <c r="B401" s="5"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="5"/>
+      <c r="B402" s="5"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="5"/>
+      <c r="B403" s="5"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="5"/>
+      <c r="B405" s="5"/>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="5"/>
+      <c r="B406" s="5"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="5"/>
+      <c r="B407" s="5"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="5"/>
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="5"/>
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="5"/>
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="5"/>
+      <c r="B411" s="5"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="5"/>
+      <c r="B413" s="5"/>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="5"/>
+      <c r="B414" s="5"/>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="5"/>
+      <c r="B415" s="5"/>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="5"/>
+      <c r="B416" s="5"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="5"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="5"/>
+      <c r="B418" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1 D11:E1048576">
